--- a/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="343">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T13:34:35+00:00</t>
+    <t>2022-11-28T14:50:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -546,7 +546,10 @@
 The data type is CodeableConcept because verificationStatus has some clinical judgment involved, such that there might need to be more specificity than the required FHIR value set allows. For example, a SNOMED coding might allow for additional specificity.</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/covid19-casereporting/ValueSet/vs-covid-diagnosis</t>
+    <t>The verification status to support or decline the clinical status of the condition or diagnosis.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/condition-ver-status|4.0.1</t>
   </si>
   <si>
     <t>con-3
@@ -1441,7 +1444,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="80.05859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="85.23828125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="69.890625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
@@ -2881,7 +2884,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>87</v>
@@ -2933,9 +2936,11 @@
       <c r="W13" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="X13" s="2"/>
+      <c r="X13" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="Y13" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>77</v>
@@ -2962,7 +2967,7 @@
         <v>87</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>99</v>
@@ -2971,24 +2976,24 @@
         <v>161</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>165</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3014,13 +3019,13 @@
         <v>154</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3046,13 +3051,13 @@
         <v>77</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>77</v>
@@ -3070,7 +3075,7 @@
         <v>77</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>78</v>
@@ -3088,16 +3093,16 @@
         <v>77</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>77</v>
@@ -3105,7 +3110,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3131,13 +3136,13 @@
         <v>154</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3166,10 +3171,10 @@
         <v>111</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>77</v>
@@ -3187,7 +3192,7 @@
         <v>77</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>78</v>
@@ -3205,28 +3210,28 @@
         <v>77</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3248,14 +3253,14 @@
         <v>154</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>77</v>
@@ -3280,13 +3285,13 @@
         <v>77</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>77</v>
@@ -3304,7 +3309,7 @@
         <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>78</v>
@@ -3319,27 +3324,27 @@
         <v>99</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3365,13 +3370,13 @@
         <v>154</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3397,13 +3402,13 @@
         <v>77</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>77</v>
@@ -3421,7 +3426,7 @@
         <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>78</v>
@@ -3439,28 +3444,28 @@
         <v>77</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3479,17 +3484,17 @@
         <v>88</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>77</v>
@@ -3538,7 +3543,7 @@
         <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>87</v>
@@ -3553,19 +3558,19 @@
         <v>99</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>77</v>
@@ -3573,7 +3578,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3596,16 +3601,16 @@
         <v>88</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3655,7 +3660,7 @@
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>78</v>
@@ -3670,19 +3675,19 @@
         <v>99</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>77</v>
@@ -3690,7 +3695,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3713,16 +3718,16 @@
         <v>88</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3760,17 +3765,17 @@
         <v>77</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>78</v>
@@ -3785,19 +3790,19 @@
         <v>99</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>77</v>
@@ -3805,10 +3810,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>77</v>
@@ -3830,16 +3835,16 @@
         <v>88</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3889,7 +3894,7 @@
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
@@ -3904,19 +3909,19 @@
         <v>99</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>77</v>
@@ -3924,7 +3929,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3947,16 +3952,16 @@
         <v>77</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3994,17 +3999,17 @@
         <v>77</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>78</v>
@@ -4013,7 +4018,7 @@
         <v>87</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>99</v>
@@ -4028,10 +4033,10 @@
         <v>77</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>77</v>
@@ -4039,10 +4044,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>77</v>
@@ -4064,16 +4069,16 @@
         <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4123,7 +4128,7 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -4132,7 +4137,7 @@
         <v>87</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>99</v>
@@ -4147,10 +4152,10 @@
         <v>77</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>77</v>
@@ -4158,7 +4163,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4181,13 +4186,13 @@
         <v>88</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4238,7 +4243,7 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -4259,13 +4264,13 @@
         <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>77</v>
@@ -4273,7 +4278,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4296,13 +4301,13 @@
         <v>88</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4353,7 +4358,7 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -4377,10 +4382,10 @@
         <v>77</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>77</v>
@@ -4388,7 +4393,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4411,13 +4416,13 @@
         <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4468,7 +4473,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -4489,13 +4494,13 @@
         <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>77</v>
@@ -4503,7 +4508,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4526,13 +4531,13 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4583,7 +4588,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -4595,7 +4600,7 @@
         <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>77</v>
@@ -4607,7 +4612,7 @@
         <v>77</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>77</v>
@@ -4618,7 +4623,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4641,13 +4646,13 @@
         <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4698,7 +4703,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -4722,7 +4727,7 @@
         <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -4733,7 +4738,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4762,7 +4767,7 @@
         <v>134</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M29" t="s" s="2">
         <v>136</v>
@@ -4815,7 +4820,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -4839,7 +4844,7 @@
         <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -4850,11 +4855,11 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -4876,10 +4881,10 @@
         <v>133</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M30" t="s" s="2">
         <v>136</v>
@@ -4934,7 +4939,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -4969,7 +4974,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4995,10 +5000,10 @@
         <v>154</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5025,13 +5030,13 @@
         <v>77</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>77</v>
@@ -5049,7 +5054,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5058,7 +5063,7 @@
         <v>87</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>99</v>
@@ -5067,13 +5072,13 @@
         <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>163</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5084,7 +5089,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5107,13 +5112,13 @@
         <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5164,7 +5169,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5173,7 +5178,7 @@
         <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>99</v>
@@ -5188,7 +5193,7 @@
         <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5199,7 +5204,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5225,10 +5230,10 @@
         <v>154</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5255,13 +5260,13 @@
         <v>77</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>77</v>
@@ -5279,7 +5284,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5303,7 +5308,7 @@
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5314,7 +5319,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5337,16 +5342,16 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5396,7 +5401,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -5420,7 +5425,7 @@
         <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -5431,7 +5436,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5454,13 +5459,13 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5511,7 +5516,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -5535,7 +5540,7 @@
         <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -5546,7 +5551,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5575,7 +5580,7 @@
         <v>134</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>136</v>
@@ -5628,7 +5633,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -5652,7 +5657,7 @@
         <v>77</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -5663,11 +5668,11 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5689,10 +5694,10 @@
         <v>133</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M37" t="s" s="2">
         <v>136</v>
@@ -5747,7 +5752,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -5782,7 +5787,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5808,10 +5813,10 @@
         <v>154</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5842,7 +5847,7 @@
       </c>
       <c r="X38" s="2"/>
       <c r="Y38" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>77</v>
@@ -5860,7 +5865,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -5869,25 +5874,25 @@
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>77</v>
@@ -5895,7 +5900,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5918,13 +5923,13 @@
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5975,7 +5980,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -5984,7 +5989,7 @@
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>99</v>
@@ -5999,10 +6004,10 @@
         <v>77</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>77</v>
@@ -6010,7 +6015,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6033,13 +6038,13 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6090,7 +6095,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6105,16 +6110,16 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>77</v>

--- a/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1510" uniqueCount="344">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T14:50:55+00:00</t>
+    <t>2022-11-29T10:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -510,7 +510,10 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/covid19-casereporting/ValueSet/vs-patient-outcome</t>
+    <t>The clinical status of the condition or diagnosis.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/condition-clinical|4.0.1</t>
   </si>
   <si>
     <t>con-3
@@ -1445,7 +1448,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="85.23828125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="69.890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="66.3046875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
@@ -2759,7 +2762,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
         <v>153</v>
       </c>
@@ -2769,13 +2772,13 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>88</v>
@@ -2821,9 +2824,11 @@
       <c r="W12" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="X12" s="2"/>
+      <c r="X12" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="Y12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>77</v>
@@ -2850,25 +2855,25 @@
         <v>87</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>77</v>
@@ -2876,7 +2881,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2902,13 +2907,13 @@
         <v>154</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2937,10 +2942,10 @@
         <v>158</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>77</v>
@@ -2958,7 +2963,7 @@
         <v>77</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>78</v>
@@ -2967,33 +2972,33 @@
         <v>87</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3019,13 +3024,13 @@
         <v>154</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3051,13 +3056,13 @@
         <v>77</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>77</v>
@@ -3075,7 +3080,7 @@
         <v>77</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>78</v>
@@ -3093,16 +3098,16 @@
         <v>77</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>77</v>
@@ -3110,7 +3115,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3136,13 +3141,13 @@
         <v>154</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3171,10 +3176,10 @@
         <v>111</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>77</v>
@@ -3192,7 +3197,7 @@
         <v>77</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>78</v>
@@ -3210,28 +3215,28 @@
         <v>77</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3253,14 +3258,14 @@
         <v>154</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>77</v>
@@ -3285,13 +3290,13 @@
         <v>77</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>77</v>
@@ -3309,7 +3314,7 @@
         <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>78</v>
@@ -3324,27 +3329,27 @@
         <v>99</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3370,13 +3375,13 @@
         <v>154</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3402,13 +3407,13 @@
         <v>77</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>77</v>
@@ -3426,7 +3431,7 @@
         <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>78</v>
@@ -3444,28 +3449,28 @@
         <v>77</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3484,17 +3489,17 @@
         <v>88</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>77</v>
@@ -3543,7 +3548,7 @@
         <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>87</v>
@@ -3558,19 +3563,19 @@
         <v>99</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>77</v>
@@ -3578,7 +3583,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3601,16 +3606,16 @@
         <v>88</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3660,7 +3665,7 @@
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>78</v>
@@ -3675,19 +3680,19 @@
         <v>99</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>77</v>
@@ -3695,7 +3700,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3718,16 +3723,16 @@
         <v>88</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3765,17 +3770,17 @@
         <v>77</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>78</v>
@@ -3790,19 +3795,19 @@
         <v>99</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>77</v>
@@ -3810,10 +3815,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>77</v>
@@ -3835,16 +3840,16 @@
         <v>88</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3894,7 +3899,7 @@
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
@@ -3909,19 +3914,19 @@
         <v>99</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>77</v>
@@ -3929,7 +3934,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3952,16 +3957,16 @@
         <v>77</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3999,17 +4004,17 @@
         <v>77</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>78</v>
@@ -4018,7 +4023,7 @@
         <v>87</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>99</v>
@@ -4033,10 +4038,10 @@
         <v>77</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>77</v>
@@ -4044,10 +4049,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>77</v>
@@ -4069,16 +4074,16 @@
         <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4128,7 +4133,7 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -4137,7 +4142,7 @@
         <v>87</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>99</v>
@@ -4152,10 +4157,10 @@
         <v>77</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>77</v>
@@ -4163,7 +4168,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4186,13 +4191,13 @@
         <v>88</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4243,7 +4248,7 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -4264,13 +4269,13 @@
         <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>77</v>
@@ -4278,7 +4283,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4301,13 +4306,13 @@
         <v>88</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4358,7 +4363,7 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -4382,10 +4387,10 @@
         <v>77</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>77</v>
@@ -4393,7 +4398,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4416,13 +4421,13 @@
         <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4473,7 +4478,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -4494,13 +4499,13 @@
         <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>77</v>
@@ -4508,7 +4513,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4531,13 +4536,13 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4588,7 +4593,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -4600,7 +4605,7 @@
         <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>77</v>
@@ -4612,7 +4617,7 @@
         <v>77</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>77</v>
@@ -4623,7 +4628,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4646,13 +4651,13 @@
         <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4703,7 +4708,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -4727,7 +4732,7 @@
         <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -4738,7 +4743,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4767,7 +4772,7 @@
         <v>134</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M29" t="s" s="2">
         <v>136</v>
@@ -4820,7 +4825,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -4844,7 +4849,7 @@
         <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -4855,11 +4860,11 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -4881,10 +4886,10 @@
         <v>133</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M30" t="s" s="2">
         <v>136</v>
@@ -4939,7 +4944,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -4974,7 +4979,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5000,10 +5005,10 @@
         <v>154</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5030,13 +5035,13 @@
         <v>77</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>77</v>
@@ -5054,7 +5059,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5063,7 +5068,7 @@
         <v>87</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>99</v>
@@ -5072,13 +5077,13 @@
         <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5089,7 +5094,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5112,13 +5117,13 @@
         <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5169,7 +5174,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5178,7 +5183,7 @@
         <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>99</v>
@@ -5193,7 +5198,7 @@
         <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5204,7 +5209,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5230,10 +5235,10 @@
         <v>154</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5260,13 +5265,13 @@
         <v>77</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>77</v>
@@ -5284,7 +5289,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5308,7 +5313,7 @@
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5319,7 +5324,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5342,16 +5347,16 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5401,7 +5406,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -5425,7 +5430,7 @@
         <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -5436,7 +5441,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5459,13 +5464,13 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5516,7 +5521,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -5540,7 +5545,7 @@
         <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -5551,7 +5556,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5580,7 +5585,7 @@
         <v>134</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>136</v>
@@ -5633,7 +5638,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -5657,7 +5662,7 @@
         <v>77</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -5668,11 +5673,11 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5694,10 +5699,10 @@
         <v>133</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M37" t="s" s="2">
         <v>136</v>
@@ -5752,7 +5757,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -5787,7 +5792,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5813,10 +5818,10 @@
         <v>154</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5847,7 +5852,7 @@
       </c>
       <c r="X38" s="2"/>
       <c r="Y38" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>77</v>
@@ -5865,7 +5870,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -5874,25 +5879,25 @@
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>77</v>
@@ -5900,7 +5905,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5923,13 +5928,13 @@
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5980,7 +5985,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -5989,7 +5994,7 @@
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>99</v>
@@ -6004,10 +6009,10 @@
         <v>77</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>77</v>
@@ -6015,7 +6020,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6038,13 +6043,13 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6095,7 +6100,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6110,16 +6115,16 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>77</v>

--- a/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T10:15:59+00:00</t>
+    <t>2022-11-29T13:15:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T13:15:00+00:00</t>
+    <t>2022-11-29T13:37:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T13:37:45+00:00</t>
+    <t>2022-11-29T14:53:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
@@ -9,14 +9,11 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$40</definedName>
-  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1510" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="370">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T14:53:02+00:00</t>
+    <t>2022-11-29T15:19:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -718,7 +715,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Group)
+    <t xml:space="preserve">Reference(Patient)
 </t>
   </si>
   <si>
@@ -774,55 +771,58 @@
     <t>Condition.onset[x]</t>
   </si>
   <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>Estimated or actual date,  date-time, or age</t>
+  </si>
+  <si>
+    <t>Estimated or actual date or date-time  the condition began, in the opinion of the clinician.</t>
+  </si>
+  <si>
+    <t>Age is generally used when the patient reports an age at which the Condition began to occur.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Event.occurrence[x]</t>
+  </si>
+  <si>
+    <t>PRB-16</t>
+  </si>
+  <si>
+    <t>.effectiveTime.low or .inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="age at onset"].value</t>
+  </si>
+  <si>
+    <t>FiveWs.init</t>
+  </si>
+  <si>
+    <t>onsetDateTime</t>
+  </si>
+  <si>
+    <t>Condition.abatement[x]</t>
+  </si>
+  <si>
     <t>dateTime
 AgePeriodRangestring</t>
   </si>
   <si>
-    <t>Estimated or actual date,  date-time, or age</t>
-  </si>
-  <si>
-    <t>Estimated or actual date or date-time  the condition began, in the opinion of the clinician.</t>
-  </si>
-  <si>
-    <t>Age is generally used when the patient reports an age at which the Condition began to occur.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
+    <t>When in resolution/remission</t>
+  </si>
+  <si>
+    <t>The date or estimated date that the condition resolved or went into remission. This is called "abatement" because of the many overloaded connotations associated with "remission" or "resolution" - Conditions are never really resolved, but they can abate.</t>
+  </si>
+  <si>
+    <t>There is no explicit distinction between resolution and remission because in many cases the distinction is not clear. Age is generally used when the patient reports an age at which the Condition abated.  If there is no abatement element, it is unknown whether the condition has resolved or entered remission; applications and users should generally assume that the condition is still valid.  When abatementString exists, it implies the condition is abated.</t>
   </si>
   <si>
     <t>open</t>
-  </si>
-  <si>
-    <t>Event.occurrence[x]</t>
-  </si>
-  <si>
-    <t>PRB-16</t>
-  </si>
-  <si>
-    <t>.effectiveTime.low or .inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="age at onset"].value</t>
-  </si>
-  <si>
-    <t>FiveWs.init</t>
-  </si>
-  <si>
-    <t>onsetDateTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>Condition.abatement[x]</t>
-  </si>
-  <si>
-    <t>When in resolution/remission</t>
-  </si>
-  <si>
-    <t>The date or estimated date that the condition resolved or went into remission. This is called "abatement" because of the many overloaded connotations associated with "remission" or "resolution" - Conditions are never really resolved, but they can abate.</t>
-  </si>
-  <si>
-    <t>There is no explicit distinction between resolution and remission because in many cases the distinction is not clear. Age is generally used when the patient reports an age at which the Condition abated.  If there is no abatement element, it is unknown whether the condition has resolved or entered remission; applications and users should generally assume that the condition is still valid.  When abatementString exists, it implies the condition is abated.</t>
   </si>
   <si>
     <t xml:space="preserve">con-4
@@ -1026,6 +1026,10 @@
     <t>The evidence may be a simple list of coded symptoms/manifestations, or references to observations or formal assessments, or both.</t>
   </si>
   <si>
+    <t>con-2:evidence SHALL have code or details {code.exists() or detail.exists()}
+ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
+  </si>
+  <si>
     <t>.outboundRelationship[typeCode=SPRT].target[classCode=OBS, moodCode=EVN]</t>
   </si>
   <si>
@@ -1096,6 +1100,82 @@
   </si>
   <si>
     <t>.inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="annotation"].value</t>
+  </si>
+  <si>
+    <t>Condition.note.id</t>
+  </si>
+  <si>
+    <t>Condition.note.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Condition.note.author[x]</t>
+  </si>
+  <si>
+    <t>Reference(Practitioner|Patient|RelatedPerson|Organization)
+string</t>
+  </si>
+  <si>
+    <t>Individual responsible for the annotation</t>
+  </si>
+  <si>
+    <t>The individual responsible for making the annotation.</t>
+  </si>
+  <si>
+    <t>Organization is used when there's no need for specific attribution as to who made the comment.</t>
+  </si>
+  <si>
+    <t>Annotation.author[x]</t>
+  </si>
+  <si>
+    <t>Act.participant[typeCode=AUT].role</t>
+  </si>
+  <si>
+    <t>authorReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Condition.note.time</t>
+  </si>
+  <si>
+    <t>When the annotation was made</t>
+  </si>
+  <si>
+    <t>Indicates when this particular annotation was made.</t>
+  </si>
+  <si>
+    <t>Annotation.time</t>
+  </si>
+  <si>
+    <t>Act.effectiveTime</t>
+  </si>
+  <si>
+    <t>Condition.note.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">markdown
+</t>
+  </si>
+  <si>
+    <t>The annotation  - text content (as markdown)</t>
+  </si>
+  <si>
+    <t>The text of the annotation in markdown format.</t>
+  </si>
+  <si>
+    <t>Annotation.text</t>
+  </si>
+  <si>
+    <t>Act.text</t>
   </si>
 </sst>
 </file>
@@ -1224,21 +1304,6 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="22"/>
-        <i val="true"/>
-      </font>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -1415,7 +1480,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO40"/>
+  <dimension ref="A1:AO46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1451,7 +1516,7 @@
     <col min="25" max="25" width="66.3046875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1592,7 +1657,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" hidden="true">
+    <row r="2">
       <c r="A2" t="s" s="2">
         <v>29</v>
       </c>
@@ -1707,7 +1772,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" hidden="true">
+    <row r="3">
       <c r="A3" t="s" s="2">
         <v>86</v>
       </c>
@@ -1824,7 +1889,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" hidden="true">
+    <row r="4">
       <c r="A4" t="s" s="2">
         <v>94</v>
       </c>
@@ -1939,7 +2004,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" hidden="true">
+    <row r="5">
       <c r="A5" t="s" s="2">
         <v>100</v>
       </c>
@@ -2056,7 +2121,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" hidden="true">
+    <row r="6">
       <c r="A6" t="s" s="2">
         <v>106</v>
       </c>
@@ -2173,7 +2238,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>115</v>
       </c>
@@ -2290,7 +2355,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" hidden="true">
+    <row r="8">
       <c r="A8" t="s" s="2">
         <v>123</v>
       </c>
@@ -2407,7 +2472,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" hidden="true">
+    <row r="9">
       <c r="A9" t="s" s="2">
         <v>131</v>
       </c>
@@ -2524,7 +2589,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>139</v>
       </c>
@@ -2643,7 +2708,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>144</v>
       </c>
@@ -2762,7 +2827,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
         <v>153</v>
       </c>
@@ -2889,13 +2954,13 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>88</v>
@@ -2996,7 +3061,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>178</v>
       </c>
@@ -3113,7 +3178,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>188</v>
       </c>
@@ -3230,7 +3295,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>198</v>
       </c>
@@ -3347,7 +3412,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>212</v>
       </c>
@@ -3464,7 +3529,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
         <v>221</v>
       </c>
@@ -3581,7 +3646,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>231</v>
       </c>
@@ -3591,7 +3656,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>87</v>
@@ -3698,7 +3763,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
         <v>240</v>
       </c>
@@ -3708,7 +3773,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>87</v>
@@ -3825,13 +3890,13 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>77</v>
@@ -3840,7 +3905,7 @@
         <v>88</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>242</v>
@@ -3932,9 +3997,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3957,7 +4022,7 @@
         <v>77</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>254</v>
@@ -4011,10 +4076,10 @@
         <v>77</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>78</v>
@@ -4023,7 +4088,7 @@
         <v>87</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>99</v>
@@ -4038,10 +4103,10 @@
         <v>77</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>77</v>
@@ -4049,10 +4114,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>77</v>
@@ -4065,7 +4130,7 @@
         <v>87</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>77</v>
@@ -4074,7 +4139,7 @@
         <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>254</v>
@@ -4133,7 +4198,7 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -4142,7 +4207,7 @@
         <v>87</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>99</v>
@@ -4157,10 +4222,10 @@
         <v>77</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>77</v>
@@ -4168,7 +4233,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4176,13 +4241,13 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>77</v>
@@ -4191,13 +4256,13 @@
         <v>88</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4248,7 +4313,7 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -4269,21 +4334,21 @@
         <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4306,13 +4371,13 @@
         <v>88</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4363,7 +4428,7 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -4387,18 +4452,18 @@
         <v>77</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4421,13 +4486,13 @@
         <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4478,7 +4543,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -4499,21 +4564,21 @@
         <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4536,13 +4601,13 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4593,7 +4658,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -4605,7 +4670,7 @@
         <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>77</v>
@@ -4617,7 +4682,7 @@
         <v>77</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>77</v>
@@ -4626,9 +4691,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4651,13 +4716,13 @@
         <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4708,7 +4773,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -4732,7 +4797,7 @@
         <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -4741,9 +4806,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4772,7 +4837,7 @@
         <v>134</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M29" t="s" s="2">
         <v>136</v>
@@ -4825,7 +4890,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -4849,7 +4914,7 @@
         <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -4858,13 +4923,13 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -4886,10 +4951,10 @@
         <v>133</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M30" t="s" s="2">
         <v>136</v>
@@ -4944,7 +5009,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -4977,9 +5042,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5005,10 +5070,10 @@
         <v>154</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5038,10 +5103,10 @@
         <v>203</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>77</v>
@@ -5059,7 +5124,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5068,7 +5133,7 @@
         <v>87</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>99</v>
@@ -5077,7 +5142,7 @@
         <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>164</v>
@@ -5092,9 +5157,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5117,13 +5182,13 @@
         <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5174,7 +5239,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5183,7 +5248,7 @@
         <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>99</v>
@@ -5198,7 +5263,7 @@
         <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5207,9 +5272,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5235,10 +5300,10 @@
         <v>154</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5268,10 +5333,10 @@
         <v>203</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>77</v>
@@ -5289,7 +5354,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5313,7 +5378,7 @@
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5322,9 +5387,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5347,16 +5412,16 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5406,7 +5471,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -5418,7 +5483,7 @@
         <v>77</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>77</v>
+        <v>322</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>77</v>
@@ -5430,7 +5495,7 @@
         <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -5439,9 +5504,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5464,13 +5529,13 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5521,7 +5586,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -5545,7 +5610,7 @@
         <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -5554,9 +5619,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5585,7 +5650,7 @@
         <v>134</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>136</v>
@@ -5638,7 +5703,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -5662,7 +5727,7 @@
         <v>77</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -5671,13 +5736,13 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5699,10 +5764,10 @@
         <v>133</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M37" t="s" s="2">
         <v>136</v>
@@ -5757,7 +5822,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -5792,7 +5857,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5800,13 +5865,13 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>77</v>
@@ -5818,10 +5883,10 @@
         <v>154</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5852,7 +5917,7 @@
       </c>
       <c r="X38" s="2"/>
       <c r="Y38" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>77</v>
@@ -5870,7 +5935,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -5879,13 +5944,13 @@
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>184</v>
@@ -5894,18 +5959,18 @@
         <v>77</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5928,13 +5993,13 @@
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5985,7 +6050,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -5994,7 +6059,7 @@
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>99</v>
@@ -6009,10 +6074,10 @@
         <v>77</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>77</v>
@@ -6020,7 +6085,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6031,10 +6096,10 @@
         <v>78</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>77</v>
@@ -6043,13 +6108,13 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6100,7 +6165,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6115,43 +6180,721 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO40" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="Q41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AN41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO41" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P42" s="2"/>
+      <c r="Q42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AN42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO42" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AB43" s="2"/>
+      <c r="AC43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AN43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO43" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="C44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P44" s="2"/>
+      <c r="Q44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AN44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO44" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO45" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P46" s="2"/>
+      <c r="Q46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO46" t="s" s="2">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO40">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="26">
-      <filters blank="true"/>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="A2:AI39">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G2&lt;&gt;"Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$Q2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T15:19:30+00:00</t>
+    <t>2022-11-29T15:46:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T15:46:25+00:00</t>
+    <t>2022-11-29T16:13:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2837,7 +2837,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>87</v>

--- a/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="371">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T16:13:33+00:00</t>
+    <t>2022-11-29T16:38:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -502,6 +502,13 @@
   </si>
   <si>
     <t>The data type is CodeableConcept because clinicalStatus has some clinical judgment involved, such that there might need to be more specificity than the required FHIR value set allows. For example, a SNOMED coding might allow for additional specificity.</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;code value="inactive"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>required</t>
@@ -2837,7 +2844,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>87</v>
@@ -2872,7 +2879,7 @@
         <v>77</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="S12" t="s" s="2">
         <v>77</v>
@@ -2887,13 +2894,13 @@
         <v>77</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>77</v>
@@ -2920,25 +2927,25 @@
         <v>87</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>77</v>
@@ -2946,7 +2953,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2972,13 +2979,13 @@
         <v>154</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3004,13 +3011,13 @@
         <v>77</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>77</v>
@@ -3028,7 +3035,7 @@
         <v>77</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>78</v>
@@ -3037,33 +3044,33 @@
         <v>87</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3089,13 +3096,13 @@
         <v>154</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3121,13 +3128,13 @@
         <v>77</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>77</v>
@@ -3145,7 +3152,7 @@
         <v>77</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>78</v>
@@ -3163,16 +3170,16 @@
         <v>77</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>77</v>
@@ -3180,7 +3187,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3206,13 +3213,13 @@
         <v>154</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3241,10 +3248,10 @@
         <v>111</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>77</v>
@@ -3262,7 +3269,7 @@
         <v>77</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>78</v>
@@ -3280,28 +3287,28 @@
         <v>77</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3323,14 +3330,14 @@
         <v>154</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>77</v>
@@ -3355,13 +3362,13 @@
         <v>77</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>77</v>
@@ -3379,7 +3386,7 @@
         <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>78</v>
@@ -3394,27 +3401,27 @@
         <v>99</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3440,13 +3447,13 @@
         <v>154</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3472,13 +3479,13 @@
         <v>77</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>77</v>
@@ -3496,7 +3503,7 @@
         <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>78</v>
@@ -3514,28 +3521,28 @@
         <v>77</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3554,17 +3561,17 @@
         <v>88</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>77</v>
@@ -3613,7 +3620,7 @@
         <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>87</v>
@@ -3628,19 +3635,19 @@
         <v>99</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>77</v>
@@ -3648,7 +3655,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3671,16 +3678,16 @@
         <v>88</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3730,7 +3737,7 @@
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>78</v>
@@ -3745,19 +3752,19 @@
         <v>99</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>77</v>
@@ -3765,7 +3772,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3788,16 +3795,16 @@
         <v>88</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3835,17 +3842,17 @@
         <v>77</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>78</v>
@@ -3860,19 +3867,19 @@
         <v>99</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>77</v>
@@ -3880,10 +3887,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>77</v>
@@ -3905,16 +3912,16 @@
         <v>88</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3964,7 +3971,7 @@
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
@@ -3979,19 +3986,19 @@
         <v>99</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>77</v>
@@ -3999,7 +4006,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4022,16 +4029,16 @@
         <v>77</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4069,17 +4076,17 @@
         <v>77</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>78</v>
@@ -4088,7 +4095,7 @@
         <v>87</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>99</v>
@@ -4103,10 +4110,10 @@
         <v>77</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>77</v>
@@ -4114,10 +4121,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>77</v>
@@ -4139,16 +4146,16 @@
         <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4198,7 +4205,7 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -4207,7 +4214,7 @@
         <v>87</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>99</v>
@@ -4222,10 +4229,10 @@
         <v>77</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>77</v>
@@ -4233,7 +4240,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4256,13 +4263,13 @@
         <v>88</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4313,7 +4320,7 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -4334,13 +4341,13 @@
         <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>77</v>
@@ -4348,7 +4355,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4371,13 +4378,13 @@
         <v>88</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4428,7 +4435,7 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -4452,10 +4459,10 @@
         <v>77</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>77</v>
@@ -4463,7 +4470,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4486,13 +4493,13 @@
         <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4543,7 +4550,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -4564,13 +4571,13 @@
         <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>77</v>
@@ -4578,7 +4585,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4601,13 +4608,13 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4658,7 +4665,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -4670,7 +4677,7 @@
         <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>77</v>
@@ -4682,7 +4689,7 @@
         <v>77</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>77</v>
@@ -4693,7 +4700,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4716,13 +4723,13 @@
         <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4773,7 +4780,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -4797,7 +4804,7 @@
         <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -4808,7 +4815,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4837,7 +4844,7 @@
         <v>134</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M29" t="s" s="2">
         <v>136</v>
@@ -4890,7 +4897,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -4914,7 +4921,7 @@
         <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -4925,11 +4932,11 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -4951,10 +4958,10 @@
         <v>133</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M30" t="s" s="2">
         <v>136</v>
@@ -5009,7 +5016,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5044,7 +5051,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5070,10 +5077,10 @@
         <v>154</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5100,13 +5107,13 @@
         <v>77</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>77</v>
@@ -5124,7 +5131,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5133,7 +5140,7 @@
         <v>87</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>99</v>
@@ -5142,13 +5149,13 @@
         <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5159,7 +5166,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5182,13 +5189,13 @@
         <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5239,7 +5246,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5248,7 +5255,7 @@
         <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>99</v>
@@ -5263,7 +5270,7 @@
         <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5274,7 +5281,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5300,10 +5307,10 @@
         <v>154</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5330,13 +5337,13 @@
         <v>77</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>77</v>
@@ -5354,7 +5361,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5378,7 +5385,7 @@
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5389,7 +5396,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5412,16 +5419,16 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5471,7 +5478,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -5483,7 +5490,7 @@
         <v>77</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>77</v>
@@ -5495,7 +5502,7 @@
         <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -5506,7 +5513,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5529,13 +5536,13 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5586,7 +5593,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -5610,7 +5617,7 @@
         <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -5621,7 +5628,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5650,7 +5657,7 @@
         <v>134</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>136</v>
@@ -5703,7 +5710,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -5727,7 +5734,7 @@
         <v>77</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -5738,11 +5745,11 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5764,10 +5771,10 @@
         <v>133</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M37" t="s" s="2">
         <v>136</v>
@@ -5822,7 +5829,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -5857,7 +5864,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5883,10 +5890,10 @@
         <v>154</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5913,11 +5920,11 @@
         <v>77</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="X38" s="2"/>
       <c r="Y38" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>77</v>
@@ -5935,7 +5942,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -5944,25 +5951,25 @@
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>77</v>
@@ -5970,7 +5977,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5993,13 +6000,13 @@
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6050,7 +6057,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6059,7 +6066,7 @@
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>99</v>
@@ -6074,10 +6081,10 @@
         <v>77</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>77</v>
@@ -6085,7 +6092,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6108,13 +6115,13 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6165,7 +6172,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6180,16 +6187,16 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>77</v>
@@ -6200,7 +6207,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6223,13 +6230,13 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6280,7 +6287,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6304,7 +6311,7 @@
         <v>77</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>77</v>
@@ -6315,7 +6322,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6344,7 +6351,7 @@
         <v>134</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>136</v>
@@ -6385,19 +6392,19 @@
         <v>77</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AC42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -6421,7 +6428,7 @@
         <v>77</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>77</v>
@@ -6432,7 +6439,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6455,16 +6462,16 @@
         <v>88</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6502,17 +6509,17 @@
         <v>77</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AB43" s="2"/>
       <c r="AC43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -6536,7 +6543,7 @@
         <v>130</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>77</v>
@@ -6547,10 +6554,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C44" t="s" s="2">
         <v>77</v>
@@ -6572,16 +6579,16 @@
         <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6631,7 +6638,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -6655,7 +6662,7 @@
         <v>130</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>77</v>
@@ -6666,7 +6673,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6689,13 +6696,13 @@
         <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6746,7 +6753,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -6770,7 +6777,7 @@
         <v>130</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
@@ -6781,7 +6788,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6804,13 +6811,13 @@
         <v>88</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6861,7 +6868,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>87</v>
@@ -6885,7 +6892,7 @@
         <v>130</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>77</v>

--- a/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T16:38:35+00:00</t>
+    <t>2022-11-29T17:19:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -5404,10 +5404,10 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>77</v>

--- a/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="370">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T17:19:52+00:00</t>
+    <t>2022-11-30T05:48:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -502,13 +502,6 @@
   </si>
   <si>
     <t>The data type is CodeableConcept because clinicalStatus has some clinical judgment involved, such that there might need to be more specificity than the required FHIR value set allows. For example, a SNOMED coding might allow for additional specificity.</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;code value="inactive"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>required</t>
@@ -2879,28 +2872,28 @@
         <v>77</v>
       </c>
       <c r="R12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W12" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="S12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W12" t="s" s="2">
+      <c r="X12" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="X12" t="s" s="2">
+      <c r="Y12" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>77</v>
@@ -2927,25 +2920,25 @@
         <v>87</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ12" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="AK12" t="s" s="2">
+      <c r="AL12" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="AM12" t="s" s="2">
+      <c r="AN12" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>77</v>
@@ -2953,7 +2946,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2979,13 +2972,13 @@
         <v>154</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3011,14 +3004,14 @@
         <v>77</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="X13" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="Y13" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="Y13" t="s" s="2">
-        <v>173</v>
-      </c>
       <c r="Z13" t="s" s="2">
         <v>77</v>
       </c>
@@ -3035,7 +3028,7 @@
         <v>77</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>78</v>
@@ -3044,33 +3037,33 @@
         <v>87</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="AM13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AO13" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AO13" t="s" s="2">
-        <v>178</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3096,13 +3089,13 @@
         <v>154</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3128,14 +3121,14 @@
         <v>77</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="Y14" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="X14" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>184</v>
-      </c>
       <c r="Z14" t="s" s="2">
         <v>77</v>
       </c>
@@ -3152,7 +3145,7 @@
         <v>77</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>78</v>
@@ -3170,16 +3163,16 @@
         <v>77</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="AM14" t="s" s="2">
+      <c r="AN14" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>77</v>
@@ -3187,7 +3180,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3213,13 +3206,13 @@
         <v>154</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3248,10 +3241,10 @@
         <v>111</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>77</v>
@@ -3269,7 +3262,7 @@
         <v>77</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>78</v>
@@ -3287,28 +3280,28 @@
         <v>77</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="AM15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="AN15" t="s" s="2">
+      <c r="AO15" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>198</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3330,14 +3323,14 @@
         <v>154</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>77</v>
@@ -3362,14 +3355,14 @@
         <v>77</v>
       </c>
       <c r="W16" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="X16" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="X16" t="s" s="2">
+      <c r="Y16" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="Y16" t="s" s="2">
-        <v>206</v>
-      </c>
       <c r="Z16" t="s" s="2">
         <v>77</v>
       </c>
@@ -3386,7 +3379,7 @@
         <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>78</v>
@@ -3401,27 +3394,27 @@
         <v>99</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AL16" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AN16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>212</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3447,13 +3440,13 @@
         <v>154</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3479,14 +3472,14 @@
         <v>77</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="X17" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="Y17" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="Y17" t="s" s="2">
-        <v>218</v>
-      </c>
       <c r="Z17" t="s" s="2">
         <v>77</v>
       </c>
@@ -3503,7 +3496,7 @@
         <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>78</v>
@@ -3521,28 +3514,28 @@
         <v>77</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AL17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO17" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>221</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3561,17 +3554,17 @@
         <v>88</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>77</v>
@@ -3620,7 +3613,7 @@
         <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>87</v>
@@ -3635,19 +3628,19 @@
         <v>99</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AK18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>77</v>
@@ -3655,7 +3648,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3678,16 +3671,16 @@
         <v>88</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3737,7 +3730,7 @@
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>78</v>
@@ -3752,19 +3745,19 @@
         <v>99</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="AK19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>77</v>
@@ -3772,7 +3765,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3795,16 +3788,16 @@
         <v>88</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3842,17 +3835,17 @@
         <v>77</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>78</v>
@@ -3867,19 +3860,19 @@
         <v>99</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AK20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="AM20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>77</v>
@@ -3887,10 +3880,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>77</v>
@@ -3912,16 +3905,16 @@
         <v>88</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3971,7 +3964,7 @@
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
@@ -3986,19 +3979,19 @@
         <v>99</v>
       </c>
       <c r="AJ21" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AK21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>77</v>
@@ -4006,7 +3999,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4029,16 +4022,16 @@
         <v>77</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4076,17 +4069,17 @@
         <v>77</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>78</v>
@@ -4095,7 +4088,7 @@
         <v>87</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>99</v>
@@ -4110,10 +4103,10 @@
         <v>77</v>
       </c>
       <c r="AM22" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>77</v>
@@ -4121,10 +4114,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>77</v>
@@ -4146,16 +4139,16 @@
         <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4205,7 +4198,7 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -4214,7 +4207,7 @@
         <v>87</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>99</v>
@@ -4229,10 +4222,10 @@
         <v>77</v>
       </c>
       <c r="AM23" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>77</v>
@@ -4240,7 +4233,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4263,13 +4256,13 @@
         <v>88</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4320,7 +4313,7 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -4341,13 +4334,13 @@
         <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>77</v>
@@ -4355,7 +4348,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4378,13 +4371,13 @@
         <v>88</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4435,7 +4428,7 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -4459,10 +4452,10 @@
         <v>77</v>
       </c>
       <c r="AM25" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>77</v>
@@ -4470,7 +4463,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4493,13 +4486,13 @@
         <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4550,7 +4543,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -4571,13 +4564,13 @@
         <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="AM26" t="s" s="2">
+      <c r="AN26" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>77</v>
@@ -4585,7 +4578,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4608,13 +4601,13 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4665,7 +4658,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -4677,19 +4670,19 @@
         <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>77</v>
@@ -4700,7 +4693,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4723,13 +4716,13 @@
         <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4780,7 +4773,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -4804,7 +4797,7 @@
         <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -4815,7 +4808,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4844,7 +4837,7 @@
         <v>134</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M29" t="s" s="2">
         <v>136</v>
@@ -4897,7 +4890,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -4921,7 +4914,7 @@
         <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -4932,11 +4925,11 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -4958,10 +4951,10 @@
         <v>133</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="M30" t="s" s="2">
         <v>136</v>
@@ -5016,7 +5009,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5051,7 +5044,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5077,10 +5070,10 @@
         <v>154</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5107,14 +5100,14 @@
         <v>77</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="X31" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="Y31" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="Y31" t="s" s="2">
-        <v>305</v>
-      </c>
       <c r="Z31" t="s" s="2">
         <v>77</v>
       </c>
@@ -5131,7 +5124,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5140,7 +5133,7 @@
         <v>87</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>99</v>
@@ -5149,13 +5142,13 @@
         <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5166,7 +5159,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5189,13 +5182,13 @@
         <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5246,7 +5239,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5255,7 +5248,7 @@
         <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>99</v>
@@ -5270,7 +5263,7 @@
         <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5281,7 +5274,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5307,10 +5300,10 @@
         <v>154</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5337,14 +5330,14 @@
         <v>77</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="X33" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="Y33" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="Y33" t="s" s="2">
-        <v>317</v>
-      </c>
       <c r="Z33" t="s" s="2">
         <v>77</v>
       </c>
@@ -5361,7 +5354,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5385,7 +5378,7 @@
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5396,7 +5389,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5419,16 +5412,16 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5478,7 +5471,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -5490,19 +5483,19 @@
         <v>77</v>
       </c>
       <c r="AI34" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -5513,7 +5506,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5536,13 +5529,13 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5593,7 +5586,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -5617,7 +5610,7 @@
         <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -5628,7 +5621,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5657,7 +5650,7 @@
         <v>134</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>136</v>
@@ -5710,7 +5703,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -5734,7 +5727,7 @@
         <v>77</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -5745,11 +5738,11 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5771,10 +5764,10 @@
         <v>133</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="M37" t="s" s="2">
         <v>136</v>
@@ -5829,7 +5822,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -5864,7 +5857,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5890,10 +5883,10 @@
         <v>154</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5920,11 +5913,11 @@
         <v>77</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="X38" s="2"/>
       <c r="Y38" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>77</v>
@@ -5942,7 +5935,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -5951,25 +5944,25 @@
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="AK38" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM38" t="s" s="2">
+      <c r="AN38" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>77</v>
@@ -5977,7 +5970,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6000,13 +5993,13 @@
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6057,7 +6050,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6066,7 +6059,7 @@
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>99</v>
@@ -6081,10 +6074,10 @@
         <v>77</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>77</v>
@@ -6092,7 +6085,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6115,13 +6108,13 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6172,7 +6165,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6187,16 +6180,16 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="AK40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>77</v>
@@ -6207,7 +6200,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6230,13 +6223,13 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6287,7 +6280,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6311,7 +6304,7 @@
         <v>77</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>77</v>
@@ -6322,7 +6315,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6351,7 +6344,7 @@
         <v>134</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>136</v>
@@ -6392,19 +6385,19 @@
         <v>77</v>
       </c>
       <c r="AA42" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AB42" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="AB42" t="s" s="2">
-        <v>350</v>
-      </c>
       <c r="AC42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -6428,7 +6421,7 @@
         <v>77</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>77</v>
@@ -6439,7 +6432,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6462,16 +6455,16 @@
         <v>88</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6509,17 +6502,17 @@
         <v>77</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AB43" s="2"/>
       <c r="AC43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -6543,7 +6536,7 @@
         <v>130</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>77</v>
@@ -6554,10 +6547,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C44" t="s" s="2">
         <v>77</v>
@@ -6579,16 +6572,16 @@
         <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6638,7 +6631,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -6662,7 +6655,7 @@
         <v>130</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>77</v>
@@ -6673,7 +6666,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6696,13 +6689,13 @@
         <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6753,7 +6746,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -6777,7 +6770,7 @@
         <v>130</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
@@ -6788,7 +6781,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6811,13 +6804,13 @@
         <v>88</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6868,7 +6861,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>87</v>
@@ -6892,7 +6885,7 @@
         <v>130</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>77</v>

--- a/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T05:48:35+00:00</t>
+    <t>2022-11-30T06:10:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="369">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T06:10:32+00:00</t>
+    <t>2022-11-30T06:30:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -822,9 +822,6 @@
     <t>There is no explicit distinction between resolution and remission because in many cases the distinction is not clear. Age is generally used when the patient reports an age at which the Condition abated.  If there is no abatement element, it is unknown whether the condition has resolved or entered remission; applications and users should generally assume that the condition is still valid.  When abatementString exists, it implies the condition is abated.</t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
     <t xml:space="preserve">con-4
 </t>
   </si>
@@ -835,9 +832,6 @@
     <t>FiveWs.done[x]</t>
   </si>
   <si>
-    <t>abatementDateTime</t>
-  </si>
-  <si>
     <t>Condition.recordedDate</t>
   </si>
   <si>
@@ -1113,6 +1107,9 @@
   </si>
   <si>
     <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
   </si>
   <si>
     <t>Condition.note.author[x]</t>
@@ -1480,7 +1477,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO46"/>
+  <dimension ref="A1:AO45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1490,7 +1487,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="35.88671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="20.01953125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="16.44140625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -4069,14 +4066,16 @@
         <v>77</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="AB22" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>257</v>
+        <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
         <v>252</v>
@@ -4088,7 +4087,7 @@
         <v>87</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>99</v>
@@ -4103,10 +4102,10 @@
         <v>77</v>
       </c>
       <c r="AM22" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>77</v>
@@ -4114,17 +4113,15 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>87</v>
@@ -4136,20 +4133,18 @@
         <v>77</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>241</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>77</v>
@@ -4198,7 +4193,7 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -4207,7 +4202,7 @@
         <v>87</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>258</v>
+        <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>99</v>
@@ -4219,13 +4214,13 @@
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>77</v>
+        <v>263</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>77</v>
@@ -4233,7 +4228,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4241,7 +4236,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>87</v>
@@ -4256,13 +4251,13 @@
         <v>88</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4313,7 +4308,7 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -4334,13 +4329,13 @@
         <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>265</v>
+        <v>77</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>77</v>
@@ -4348,7 +4343,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4371,13 +4366,13 @@
         <v>88</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4428,7 +4423,7 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -4449,13 +4444,13 @@
         <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>77</v>
+        <v>275</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>77</v>
@@ -4463,7 +4458,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4474,7 +4469,7 @@
         <v>78</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>77</v>
@@ -4483,16 +4478,16 @@
         <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4543,19 +4538,19 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>99</v>
+        <v>282</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>77</v>
@@ -4564,13 +4559,13 @@
         <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>277</v>
+        <v>77</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>279</v>
+        <v>77</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>77</v>
@@ -4578,7 +4573,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4589,7 +4584,7 @@
         <v>78</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>77</v>
@@ -4601,13 +4596,13 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4658,19 +4653,19 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>284</v>
+        <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>77</v>
@@ -4682,7 +4677,7 @@
         <v>77</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>77</v>
@@ -4693,18 +4688,18 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>77</v>
@@ -4716,15 +4711,17 @@
         <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>287</v>
+        <v>133</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>288</v>
+        <v>134</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>77</v>
@@ -4773,19 +4770,19 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>77</v>
@@ -4797,7 +4794,7 @@
         <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -4808,11 +4805,11 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>132</v>
+        <v>294</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4825,24 +4822,26 @@
         <v>77</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>133</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>134</v>
+        <v>295</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="M29" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="N29" s="2"/>
+      <c r="N29" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>77</v>
       </c>
@@ -4890,7 +4889,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -4914,7 +4913,7 @@
         <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>291</v>
+        <v>130</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -4925,43 +4924,39 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>296</v>
+        <v>77</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>77</v>
       </c>
@@ -4985,13 +4980,13 @@
         <v>77</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>77</v>
+        <v>301</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>77</v>
+        <v>302</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>77</v>
@@ -5009,31 +5004,31 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>77</v>
+        <v>303</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>77</v>
+        <v>304</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>130</v>
+        <v>209</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5044,7 +5039,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5055,7 +5050,7 @@
         <v>78</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>77</v>
@@ -5067,13 +5062,13 @@
         <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>154</v>
+        <v>306</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5100,40 +5095,40 @@
         <v>77</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="X31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH31" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>99</v>
@@ -5142,13 +5137,13 @@
         <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>306</v>
+        <v>77</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>209</v>
+        <v>309</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5159,7 +5154,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5170,7 +5165,7 @@
         <v>78</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>77</v>
@@ -5182,13 +5177,13 @@
         <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>308</v>
+        <v>154</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5215,13 +5210,13 @@
         <v>77</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>77</v>
+        <v>313</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>77</v>
+        <v>314</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>77</v>
@@ -5239,16 +5234,16 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>305</v>
+        <v>77</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>99</v>
@@ -5263,7 +5258,7 @@
         <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5274,7 +5269,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5282,7 +5277,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>87</v>
@@ -5297,15 +5292,17 @@
         <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>154</v>
+        <v>279</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>77</v>
@@ -5330,43 +5327,43 @@
         <v>77</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>315</v>
+        <v>77</v>
       </c>
       <c r="Y33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE33" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="Z33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>312</v>
-      </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>99</v>
+        <v>320</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>77</v>
@@ -5378,7 +5375,7 @@
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5389,7 +5386,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5397,7 +5394,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>87</v>
@@ -5412,17 +5409,15 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>319</v>
+        <v>286</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>321</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>77</v>
@@ -5471,19 +5466,19 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>318</v>
+        <v>288</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>322</v>
+        <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>77</v>
@@ -5495,7 +5490,7 @@
         <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>323</v>
+        <v>289</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -5506,18 +5501,18 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>77</v>
@@ -5529,15 +5524,17 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>287</v>
+        <v>133</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>288</v>
+        <v>134</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>77</v>
@@ -5586,19 +5583,19 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>77</v>
@@ -5610,7 +5607,7 @@
         <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -5621,11 +5618,11 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>132</v>
+        <v>294</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5638,24 +5635,26 @@
         <v>77</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>133</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>134</v>
+        <v>295</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="N36" s="2"/>
+      <c r="N36" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>77</v>
       </c>
@@ -5703,7 +5702,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -5727,7 +5726,7 @@
         <v>77</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>291</v>
+        <v>130</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -5738,11 +5737,11 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>296</v>
+        <v>77</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5755,26 +5754,22 @@
         <v>77</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>297</v>
+        <v>326</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>77</v>
       </c>
@@ -5798,13 +5793,11 @@
         <v>77</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="X37" s="2"/>
       <c r="Y37" t="s" s="2">
-        <v>77</v>
+        <v>328</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>77</v>
@@ -5822,7 +5815,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>299</v>
+        <v>325</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -5831,25 +5824,25 @@
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>77</v>
+        <v>329</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>77</v>
+        <v>330</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>77</v>
+        <v>184</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>130</v>
+        <v>331</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>77</v>
+        <v>332</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>77</v>
@@ -5857,7 +5850,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5880,13 +5873,13 @@
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>154</v>
+        <v>334</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5913,11 +5906,13 @@
         <v>77</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="X38" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Y38" t="s" s="2">
-        <v>330</v>
+        <v>77</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>77</v>
@@ -5935,7 +5930,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -5944,25 +5939,25 @@
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AN38" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>77</v>
@@ -5970,7 +5965,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5981,7 +5976,7 @@
         <v>78</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>77</v>
@@ -5990,16 +5985,16 @@
         <v>77</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6050,7 +6045,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6059,25 +6054,25 @@
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>331</v>
+        <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>77</v>
+        <v>341</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>77</v>
+        <v>342</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>334</v>
+        <v>77</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>77</v>
@@ -6085,7 +6080,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6108,13 +6103,13 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>340</v>
+        <v>285</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>341</v>
+        <v>286</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>342</v>
+        <v>287</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6165,31 +6160,31 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>339</v>
+        <v>288</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>343</v>
+        <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>344</v>
+        <v>77</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>345</v>
+        <v>289</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>77</v>
@@ -6200,18 +6195,18 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>77</v>
@@ -6223,15 +6218,17 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>287</v>
+        <v>133</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>288</v>
+        <v>134</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>77</v>
@@ -6268,31 +6265,31 @@
         <v>77</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>77</v>
+        <v>346</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>77</v>
+        <v>347</v>
       </c>
       <c r="AC41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>77</v>
+        <v>348</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>77</v>
@@ -6304,7 +6301,7 @@
         <v>77</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>77</v>
@@ -6315,18 +6312,18 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>77</v>
@@ -6335,19 +6332,19 @@
         <v>77</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>133</v>
+        <v>350</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>134</v>
+        <v>351</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>293</v>
+        <v>352</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>136</v>
+        <v>353</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6385,31 +6382,29 @@
         <v>77</v>
       </c>
       <c r="AA42" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AB42" s="2"/>
+      <c r="AC42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD42" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="AB42" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>257</v>
-      </c>
       <c r="AE42" t="s" s="2">
-        <v>294</v>
+        <v>354</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>77</v>
@@ -6418,10 +6413,10 @@
         <v>77</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>291</v>
+        <v>355</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>77</v>
@@ -6432,9 +6427,11 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="B43" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="C43" t="s" s="2">
         <v>77</v>
       </c>
@@ -6455,16 +6452,16 @@
         <v>88</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6502,17 +6499,19 @@
         <v>77</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="AB43" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>257</v>
+        <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -6536,7 +6535,7 @@
         <v>130</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>77</v>
@@ -6547,11 +6546,9 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>357</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
         <v>77</v>
       </c>
@@ -6572,17 +6569,15 @@
         <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>358</v>
+        <v>241</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>354</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>77</v>
@@ -6631,7 +6626,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -6655,7 +6650,7 @@
         <v>130</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>77</v>
@@ -6666,7 +6661,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6674,7 +6669,7 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>87</v>
@@ -6689,13 +6684,13 @@
         <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>241</v>
+        <v>364</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6746,10 +6741,10 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>87</v>
@@ -6770,127 +6765,12 @@
         <v>130</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="E46" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="F46" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="K46" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P46" s="2"/>
-      <c r="Q46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO46" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T06:30:25+00:00</t>
+    <t>2022-11-30T07:44:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T07:44:48+00:00</t>
+    <t>2022-11-30T09:05:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T09:05:55+00:00</t>
+    <t>2022-11-30T11:29:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T11:29:51+00:00</t>
+    <t>2022-11-30T11:53:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T11:53:49+00:00</t>
+    <t>2022-11-30T12:56:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T12:56:54+00:00</t>
+    <t>2022-11-30T13:39:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T13:39:19+00:00</t>
+    <t>2022-11-30T14:25:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T14:25:57+00:00</t>
+    <t>2022-12-01T06:22:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T06:22:50+00:00</t>
+    <t>2022-12-01T06:30:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T06:30:49+00:00</t>
+    <t>2022-12-01T06:43:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T06:43:04+00:00</t>
+    <t>2022-12-01T06:55:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T06:55:13+00:00</t>
+    <t>2022-12-01T07:05:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T07:05:23+00:00</t>
+    <t>2022-12-01T07:37:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T07:37:38+00:00</t>
+    <t>2022-12-01T08:15:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T08:15:41+00:00</t>
+    <t>2022-12-01T08:22:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T08:22:41+00:00</t>
+    <t>2022-12-01T08:50:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T08:50:08+00:00</t>
+    <t>2022-12-01T09:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T09:02:26+00:00</t>
+    <t>2022-12-01T09:20:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T09:20:32+00:00</t>
+    <t>2022-12-01T09:36:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T09:36:28+00:00</t>
+    <t>2022-12-01T10:00:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T10:00:58+00:00</t>
+    <t>2022-12-01T10:50:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T10:50:29+00:00</t>
+    <t>2022-12-01T10:57:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T10:57:09+00:00</t>
+    <t>2022-12-01T11:23:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T11:23:26+00:00</t>
+    <t>2022-12-01T11:32:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T11:32:02+00:00</t>
+    <t>2022-12-01T11:40:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T11:40:36+00:00</t>
+    <t>2022-12-01T11:55:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T11:55:49+00:00</t>
+    <t>2022-12-01T13:09:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T13:09:32+00:00</t>
+    <t>2022-12-01T13:41:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T13:41:09+00:00</t>
+    <t>2022-12-01T13:59:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T13:59:25+00:00</t>
+    <t>2022-12-01T14:05:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T14:05:48+00:00</t>
+    <t>2022-12-01T14:38:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T14:38:52+00:00</t>
+    <t>2022-12-01T14:45:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T14:45:46+00:00</t>
+    <t>2022-12-01T15:02:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T15:02:19+00:00</t>
+    <t>2022-12-01T15:58:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0-test</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T15:58:18+00:00</t>
+    <t>2022-12-01T17:22:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>OpenHIE</t>
+    <t>Jembi Health Systems</t>
   </si>
   <si>
     <t>Contact</t>

--- a/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/covid19-casereporting/StructureDefinition/covid19-diagnosis</t>
+    <t>https://openhie.github.io/cares-covid-ig/StructureDefinition/covid19-diagnosis</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>0.1.0-test</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T17:22:13+00:00</t>
+    <t>2022-12-01T17:41:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Jembi Health Systems</t>
+    <t>OpenHIE</t>
   </si>
   <si>
     <t>Contact</t>
@@ -1045,7 +1045,7 @@
     <t>A manifestation or symptom that led to the recording of this condition.</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/covid19-casereporting/ValueSet/vs-presentation</t>
+    <t>https://openhie.github.io/cares-covid-ig/ValueSet/vs-presentation</t>
   </si>
   <si>
     <t xml:space="preserve">con-2
@@ -1510,7 +1510,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="85.23828125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="66.3046875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="60.90625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0-test</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T17:41:14+00:00</t>
+    <t>2022-12-01T17:51:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>OpenHIE</t>
+    <t>Jembi Health Systems</t>
   </si>
   <si>
     <t>Contact</t>

--- a/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://openhie.github.io/cares-covid-ig/StructureDefinition/covid19-diagnosis</t>
+    <t>http://openhie.org/fhir/covid19-casereporting/StructureDefinition/covid19-diagnosis</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T17:51:39+00:00</t>
+    <t>2022-12-01T17:57:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1045,7 +1045,7 @@
     <t>A manifestation or symptom that led to the recording of this condition.</t>
   </si>
   <si>
-    <t>https://openhie.github.io/cares-covid-ig/ValueSet/vs-presentation</t>
+    <t>http://openhie.org/fhir/covid19-casereporting/ValueSet/vs-presentation</t>
   </si>
   <si>
     <t xml:space="preserve">con-2
@@ -1510,7 +1510,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="85.23828125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="60.90625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="66.3046875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T17:57:12+00:00</t>
+    <t>2022-12-01T19:12:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T19:12:42+00:00</t>
+    <t>2022-12-01T19:29:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T19:29:16+00:00</t>
+    <t>2022-12-02T05:56:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-02T05:56:29+00:00</t>
+    <t>2022-12-02T06:27:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-02T06:27:17+00:00</t>
+    <t>2022-12-02T09:31:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-02T09:31:17+00:00</t>
+    <t>2022-12-02T11:54:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T13:26:54+00:00</t>
+    <t>2023-01-11T14:08:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T14:08:01+00:00</t>
+    <t>2023-01-11T15:22:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T15:22:07+00:00</t>
+    <t>2023-01-11T16:26:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
